--- a/01-Analisis/Cuadro comparativo proveedores.xlsx
+++ b/01-Analisis/Cuadro comparativo proveedores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\proyecto-sicloud\01-Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78862B93-5D41-4D0F-95AF-AE661DC70C1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2819F62-BE2E-48F6-A5DF-E85F563382E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{E26003AD-5D60-498F-8E6E-319564AC161C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
   <si>
     <t>Proveedor 1</t>
   </si>
@@ -53,6 +53,9 @@
   <si>
     <t>Mensual $181.757</t>
   </si>
+  <si>
+    <t>Hosting</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +72,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -86,14 +117,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -118,15 +351,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3009899</xdr:colOff>
+      <xdr:colOff>3047999</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1323975</xdr:rowOff>
+      <xdr:rowOff>1400175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -149,7 +382,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9744075" y="371475"/>
+          <a:off x="9782175" y="495300"/>
           <a:ext cx="2695574" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -250,15 +483,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3238501</xdr:colOff>
+      <xdr:colOff>3248026</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1467049</xdr:rowOff>
+      <xdr:rowOff>1476574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -281,7 +514,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133601" y="2466975"/>
+          <a:off x="2143126" y="2533650"/>
           <a:ext cx="3028950" cy="1428949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -295,14 +528,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3286125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1895474</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1885949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -325,7 +558,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971676" y="4276725"/>
+          <a:off x="1971676" y="4524375"/>
           <a:ext cx="3238499" cy="1771649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -338,15 +571,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1714500</xdr:rowOff>
+      <xdr:colOff>3952875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1847850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -369,7 +602,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343525" y="4191000"/>
+          <a:off x="5391150" y="4581525"/>
           <a:ext cx="3848100" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -723,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4528CCB-A9D5-460B-B8E0-4D1BB241F4F4}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,68 +970,96 @@
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="7"/>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>2500000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2800000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="7"/>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="156" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>